--- a/my_project/db/testUserDetails.xlsx
+++ b/my_project/db/testUserDetails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,66 +449,31 @@
           <t>testType</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>timeStamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>agampatel@gmail.com</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12345242</v>
+          <t>agnihotriaman@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>124ef1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>testByCompanies</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>agampatel@gmail.com</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>123456442</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>testByCompanies</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>agampatel@gmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>12356442</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>testByCompanies</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>agnihotriaman@gmail.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>123452ef2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>testByCompanies</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-08-22 14:35:21</t>
         </is>
       </c>
     </row>
